--- a/Ports for Robot.xlsx
+++ b/Ports for Robot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -259,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +595,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.85546875" defaultRowHeight="16"/>
@@ -716,6 +719,7 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -841,7 +845,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.51"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;LLast Edited: David Grossman&amp;CFebruary 20, 2012&amp;R FRC Team 811</oddHeader>
   </headerFooter>
